--- a/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_1_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.99960192594639</v>
+        <v>90.00120106300572</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2488070527130765</v>
+        <v>0.2268365132088281</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.03414808932388</v>
+        <v>89.01738528013058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2492821374537774</v>
+        <v>0.2461468589298714</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01904881170321</v>
+        <v>87.96877004449289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.231258309394574</v>
+        <v>0.2511352433556792</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.98830367034367</v>
+        <v>87.0011121014564</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2414527860573633</v>
+        <v>0.2377428967463867</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.0382901197992</v>
+        <v>85.97449389850334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2398139100365281</v>
+        <v>0.2632585287563435</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.97449450083782</v>
+        <v>85.03620429932118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2409705539747108</v>
+        <v>0.2459063562051212</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.03406280605836</v>
+        <v>84.02311965670428</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2381565859083596</v>
+        <v>0.2685917892960248</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.99102775379549</v>
+        <v>82.99295074823709</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2328325554311474</v>
+        <v>0.2556640745318735</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.98734486451492</v>
+        <v>82.00816534802712</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2303306335902312</v>
+        <v>0.2586362878326111</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.99044243250627</v>
+        <v>80.99041256827327</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25246353720081</v>
+        <v>0.2510076135843245</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.02763672189431</v>
+        <v>80.0249513990172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2265931955383892</v>
+        <v>0.254935223996233</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.99683730269656</v>
+        <v>79.01359401710376</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2583529372035385</v>
+        <v>0.2995131692064207</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.00499498452409</v>
+        <v>78.06192751265966</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2745540449470872</v>
+        <v>0.2495505824272279</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.98372402684677</v>
+        <v>76.97658856497758</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2442552824089133</v>
+        <v>0.2640604686222776</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.99493883667814</v>
+        <v>75.97799028792105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2458443626960701</v>
+        <v>0.270854385627225</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.00812224482337</v>
+        <v>74.98464825422751</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2780242533748096</v>
+        <v>0.2508920755626021</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.97129659916996</v>
+        <v>74.02071580031739</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2631384421489588</v>
+        <v>0.2489309276902461</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.97348207841523</v>
+        <v>72.99404761650167</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2428834651426703</v>
+        <v>0.2818545309681034</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.99581318404972</v>
+        <v>71.99762887777516</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2693701521868779</v>
+        <v>0.2745964562579414</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.97330028792014</v>
+        <v>71.05760113631004</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2800026805375416</v>
+        <v>0.2638409006626298</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.01646272483745</v>
+        <v>69.9826127661016</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3254011563327032</v>
+        <v>0.2392973016350197</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.97269251521649</v>
+        <v>69.00321015935262</v>
       </c>
       <c r="D23" t="n">
-        <v>0.290281195480185</v>
+        <v>0.2706311604238074</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.99671842047726</v>
+        <v>68.08423683926611</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3037468675384934</v>
+        <v>0.2663514003933239</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96684064537226</v>
+        <v>66.99137161361338</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2500695608800951</v>
+        <v>0.2523355078395879</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.97580369471665</v>
+        <v>66.05196220524203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2423422265106454</v>
+        <v>0.2801213739954084</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.98943700636758</v>
+        <v>64.99822339613307</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3300348926112671</v>
+        <v>0.3244858651333117</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.03500651665925</v>
+        <v>63.98992549233237</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2615576995412787</v>
+        <v>0.2477761343758254</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.03129421499571</v>
+        <v>63.02950632337219</v>
       </c>
       <c r="D29" t="n">
-        <v>0.276522209003648</v>
+        <v>0.2595756943300587</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.97373216971132</v>
+        <v>61.98719935368662</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2844589216681198</v>
+        <v>0.2646479120866062</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.0734212863025</v>
+        <v>61.02308294548503</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2780965654322605</v>
+        <v>0.2683753146924928</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02441031600415</v>
+        <v>60.01727422325813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2620314757391346</v>
+        <v>0.3157757179794249</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.03844792494386</v>
+        <v>58.98168878365741</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2916382648914899</v>
+        <v>0.2940708128156438</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.07031513578211</v>
+        <v>57.96370528428357</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2934933713704623</v>
+        <v>0.3221222465367247</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.07159978610522</v>
+        <v>56.96727738959338</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2814857749317292</v>
+        <v>0.3089946116031242</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.98050866858264</v>
+        <v>55.98674373283527</v>
       </c>
       <c r="D36" t="n">
-        <v>0.269339744309854</v>
+        <v>0.2921088016643856</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.96900523338889</v>
+        <v>54.9956792232836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3025790214117416</v>
+        <v>0.3171402791117216</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.96041864341947</v>
+        <v>54.00006490800918</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3176807205820625</v>
+        <v>0.2935191332551138</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.0115664401123</v>
+        <v>52.96905856131862</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3189300336187016</v>
+        <v>0.3079534644627267</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.95751464255091</v>
+        <v>52.00629959282632</v>
       </c>
       <c r="D40" t="n">
-        <v>0.307140120437281</v>
+        <v>0.2852478553883725</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.01469839429326</v>
+        <v>50.9751983610666</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2897769966022839</v>
+        <v>0.2914729744041344</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.97846222166261</v>
+        <v>50.00142887168752</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3120719198409619</v>
+        <v>0.2909589950889709</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.04024524646533</v>
+        <v>49.05369029639932</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3331572267518251</v>
+        <v>0.3012934500266327</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.06626928207712</v>
+        <v>48.03237440131647</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3214395095334499</v>
+        <v>0.2734488065879569</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.98150696560931</v>
+        <v>46.98393955062362</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3338318368725497</v>
+        <v>0.3817615597392749</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.97646178900681</v>
+        <v>46.00114568032554</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3398872936990828</v>
+        <v>0.2906698596934971</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.96957615534203</v>
+        <v>44.96973507925068</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3372525289866035</v>
+        <v>0.2707588209984279</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.96015349836696</v>
+        <v>43.95911217333231</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3499113372938427</v>
+        <v>0.3086052288260483</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.02803527906894</v>
+        <v>42.96823443440186</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3233227888087422</v>
+        <v>0.2742203075004139</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.99050359322649</v>
+        <v>42.01678438928431</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3451257670063244</v>
+        <v>0.2949838246961154</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.98164980070401</v>
+        <v>41.00200248463859</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3455864705509378</v>
+        <v>0.2630390644850455</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.03018820846764</v>
+        <v>40.05818304657397</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3258503464323935</v>
+        <v>0.313652493648288</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.99449545510162</v>
+        <v>39.00705326151993</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3406205982372505</v>
+        <v>0.2830901012621546</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.0064049725345</v>
+        <v>37.98499324940447</v>
       </c>
       <c r="D54" t="n">
-        <v>0.322700766089609</v>
+        <v>0.2992682902412207</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.97571156288184</v>
+        <v>37.0244024391794</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3146894599824926</v>
+        <v>0.3149120928101884</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.99677592499054</v>
+        <v>35.91154324598838</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3210120230257368</v>
+        <v>0.3553150716128938</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.90187246925161</v>
+        <v>34.96408132321143</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3477858945037651</v>
+        <v>0.3152028818280776</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.9828933853466</v>
+        <v>34.01708858069672</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3412827228239489</v>
+        <v>0.3315000368823329</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.92774151113603</v>
+        <v>33.00073842936717</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3105976015547694</v>
+        <v>0.3638530399586041</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.02436906438081</v>
+        <v>31.9717661118792</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3564433387009425</v>
+        <v>0.3338016792141119</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.00454777024231</v>
+        <v>30.99223056402029</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3342150116425539</v>
+        <v>0.3382311187260262</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.94373172177836</v>
+        <v>29.96555528781169</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3191382300539604</v>
+        <v>0.2982464389896283</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.96217112202973</v>
+        <v>29.04290486682296</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3325320064013649</v>
+        <v>0.3380512403999238</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.00705251708976</v>
+        <v>28.01345411005898</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3492571790873935</v>
+        <v>0.3417207067184685</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.93828401885272</v>
+        <v>27.02154200693542</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3133803309439209</v>
+        <v>0.3014939364926609</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.95773743058261</v>
+        <v>26.02638746979606</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3769074430851378</v>
+        <v>0.3041818120305877</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.97977341472359</v>
+        <v>24.98618195476671</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3414837285790471</v>
+        <v>0.3359399746949599</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.88646511201862</v>
+        <v>24.01942991529105</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3477402118497562</v>
+        <v>0.4072056945204071</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.01894360513628</v>
+        <v>23.01433818965439</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3493922431400098</v>
+        <v>0.3531086342680217</v>
       </c>
     </row>
   </sheetData>
